--- a/数据整理/stocks/其他/SIE-西门子.xlsx
+++ b/数据整理/stocks/其他/SIE-西门子.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513030</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安国际龙头(DAX)ETFQDII</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6048</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006282</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根欧洲动力策略股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/SIE-西门子.xlsx
+++ b/数据整理/stocks/其他/SIE-西门子.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -840,4 +841,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513030</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安国际龙头(DAX)ETFQDII</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4413</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006282</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根欧洲动力策略股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/SIE-西门子.xlsx
+++ b/数据整理/stocks/其他/SIE-西门子.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -973,4 +974,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/SIE-西门子.xlsx
+++ b/数据整理/stocks/其他/SIE-西门子.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -982,7 +983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -993,17 +994,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1013,11 +1034,85 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>513030</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安国际龙头(DAX)ETFQDII</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4487</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0.45</v>
@@ -1029,14 +1124,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.62</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="4">
@@ -1045,14 +1140,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.76</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="5">
@@ -1061,13 +1156,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.83</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/SIE-西门子.xlsx
+++ b/数据整理/stocks/其他/SIE-西门子.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1077,7 +1078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1088,17 +1089,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1108,14 +1129,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.45</v>
+          <t>513030</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安国际龙头(DAX)ETFQDII</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4491</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1124,11 +1167,101 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>006282</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根欧洲动力策略股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0.45</v>
@@ -1140,14 +1273,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.62</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="5">
@@ -1156,14 +1289,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.76</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="6">
@@ -1172,13 +1305,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.83</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/SIE-西门子.xlsx
+++ b/数据整理/stocks/其他/SIE-西门子.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1210,7 +1211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1221,17 +1222,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1241,14 +1262,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>513030</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安国际龙头(DAX)ETFQDII</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3757</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="3">
@@ -1257,14 +1352,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="4">
@@ -1273,11 +1368,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0.45</v>
@@ -1289,14 +1384,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.62</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="6">
@@ -1305,14 +1400,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.76</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="7">
@@ -1321,13 +1416,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.83</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/SIE-西门子.xlsx
+++ b/数据整理/stocks/其他/SIE-西门子.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,129 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>513030</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安国际龙头(DAX)ETFQDII</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10.53</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>95.88</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.79</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8203</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006282</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>上投摩根欧洲动力策略股票（QDII）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.09</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0087</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.83</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -589,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -650,64 +666,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.01</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.18</t>
+          <t>87.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.36</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7532</t>
+          <t>0.3757</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006282</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>上投摩根欧洲动力策略股票（QDII）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.07</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0082</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -742,7 +720,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -782,22 +760,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.01</t>
+          <t>6.49</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.35</t>
+          <t>92.80</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.55</t>
+          <t>6.92</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6048</t>
+          <t>0.4491</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -820,26 +798,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.13</t>
+          <t>89.68</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0114</t>
+          <t>0.0094</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -848,6 +826,100 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513030</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安国际龙头(DAX)ETFQDII</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4487</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -972,100 +1044,6 @@
       </c>
       <c r="H3" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>513030</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安国际龙头(DAX)ETFQDII</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>88.58</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.26</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4487</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1100,7 +1078,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1140,22 +1118,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.49</t>
+          <t>8.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.80</t>
+          <t>93.35</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.92</t>
+          <t>7.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4491</t>
+          <t>0.6048</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1178,26 +1156,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.68</t>
+          <t>90.13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0094</t>
+          <t>0.0114</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1211,7 +1189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1232,7 +1210,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1272,26 +1250,64 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.39</t>
+          <t>9.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.10</t>
+          <t>95.18</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>8.36</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3757</t>
+          <t>0.7532</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006282</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根欧洲动力策略股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1305,144 +1321,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>513030</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安国际龙头(DAX)ETFQDII</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8203</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+          <t>006282</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根欧洲动力策略股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.83</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/其他/SIE-西门子.xlsx
+++ b/数据整理/stocks/其他/SIE-西门子.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="5">
@@ -536,11 +537,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0.45</v>
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.62</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.76</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.83</v>
       </c>
     </row>
@@ -661,31 +678,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安国际龙头(DAX)ETFQDII</t>
+          <t>华安国际龙头（DAX）ETF（QDII）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.39</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.10</t>
+          <t>93.57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>6.96</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3757</t>
+          <t>0.3856</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -694,6 +711,100 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513030</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安国际龙头(DAX)ETFQDII</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3757</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -825,7 +936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -912,138 +1023,6 @@
       </c>
       <c r="H2" t="n">
         <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>513030</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安国际龙头(DAX)ETFQDII</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.12</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.50</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.21</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4413</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006282</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>上投摩根欧洲动力策略股票（QDII）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.13</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0103</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1118,22 +1097,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.01</t>
+          <t>6.12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.35</t>
+          <t>92.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.55</t>
+          <t>7.21</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6048</t>
+          <t>0.4413</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1156,26 +1135,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.13</t>
+          <t>92.13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0114</t>
+          <t>0.0103</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1250,22 +1229,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.01</t>
+          <t>8.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.18</t>
+          <t>93.35</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.36</t>
+          <t>7.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7532</t>
+          <t>0.6048</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1288,26 +1267,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.07</t>
+          <t>90.13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0082</t>
+          <t>0.0114</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1316,6 +1295,138 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513030</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安国际龙头(DAX)ETFQDII</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7532</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006282</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根欧洲动力策略股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/其他/SIE-西门子.xlsx
+++ b/数据整理/stocks/其他/SIE-西门子.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="6">
@@ -553,11 +554,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0.45</v>
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.62</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0.76</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,166 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.83</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513030</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安国际龙头(DAX)ETFQDII</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8203</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006282</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根欧洲动力策略股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,22 +832,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.57</t>
+          <t>92.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.96</t>
+          <t>7.68</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3856</t>
+          <t>0.3656</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -772,31 +921,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安国际龙头(DAX)ETFQDII</t>
+          <t>华安国际龙头（DAX）ETF（QDII）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.39</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.10</t>
+          <t>93.57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>6.96</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3757</t>
+          <t>0.3856</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -805,6 +954,100 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513030</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安国际龙头(DAX)ETFQDII</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3757</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -936,7 +1179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1023,138 +1266,6 @@
       </c>
       <c r="H2" t="n">
         <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>513030</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安国际龙头(DAX)ETFQDII</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.12</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.50</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.21</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4413</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006282</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>上投摩根欧洲动力策略股票（QDII）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.13</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0103</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1229,22 +1340,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.01</t>
+          <t>6.12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.35</t>
+          <t>92.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.55</t>
+          <t>7.21</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6048</t>
+          <t>0.4413</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1267,26 +1378,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.13</t>
+          <t>92.13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0114</t>
+          <t>0.0103</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1361,22 +1472,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.01</t>
+          <t>8.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.18</t>
+          <t>93.35</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.36</t>
+          <t>7.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7532</t>
+          <t>0.6048</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1399,26 +1510,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.07</t>
+          <t>90.13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0082</t>
+          <t>0.0114</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1434,51 +1545,51 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -1493,22 +1604,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.53</t>
+          <t>9.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.88</t>
+          <t>95.18</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.79</t>
+          <t>8.36</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8203</t>
+          <t>0.7532</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1516,7 +1627,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -1531,29 +1642,29 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>92.07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0087</t>
+          <t>0.0082</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>